--- a/ag_total.xlsx
+++ b/ag_total.xlsx
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alan García</t>
+          <t>Alan García I</t>
         </is>
       </c>
       <c r="H50" t="n">
